--- a/xlsx/拉丁文_intext.xlsx
+++ b/xlsx/拉丁文_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1011">
   <si>
     <t>拉丁文</t>
   </si>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>官方語言列表</t>
+    <t>官方语言列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%9E%AD%E6%9C%9B%E7%AB%99</t>
   </si>
   <si>
-    <t>语言瞭望站</t>
+    <t>语言了望站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>會議</t>
+    <t>会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E6%8B%9C</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E</t>
   </si>
   <si>
-    <t>歐美</t>
+    <t>欧美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>神學</t>
+    <t>神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%AD%A6%E7%A7%91</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%AD%AF-%E6%92%92%E5%85%8B%E9%81%9C%E8%AA%9E</t>
   </si>
   <si>
-    <t>盎格魯-撒克遜語</t>
+    <t>盎格鲁-撒克逊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%84%9B%E7%88%BE%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>古愛爾蘭語</t>
+    <t>古爱尔兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AF%AD</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>祖語</t>
+    <t>祖语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%8D%B0%E6%AD%90%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始印歐語</t>
+    <t>原始印欧语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -515,19 +515,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%AD%AF%E6%92%92%E5%85%8B%E9%81%9C%E8%AA%9E</t>
   </si>
   <si>
-    <t>盎格魯撒克遜語</t>
+    <t>盎格鲁撒克逊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A5%A7%E5%8F%A4%E6%96%AF%E4%B8%81_(%E5%9D%8E%E7%89%B9%E4%BC%AF%E9%9B%B7)</t>
   </si>
   <si>
-    <t>聖奧古斯丁 (坎特伯雷)</t>
+    <t>圣奥古斯丁 (坎特伯雷)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E9%A1%8D%E6%88%91%E7%95%A5%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗額我略一世</t>
+    <t>教宗额我略一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%88%E4%BE%9D</t>
@@ -551,19 +551,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>諾曼語</t>
+    <t>诺曼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%E4%BA%BA</t>
   </si>
   <si>
-    <t>諾曼人</t>
+    <t>诺曼人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E4%BA%BA</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84-%E6%96%AF%E6%8B%89%E5%A4%AB%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>波羅的-斯拉夫語族</t>
+    <t>波罗的-斯拉夫语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%EF%BC%8D%E4%BC%8A%E6%9C%97%E8%AF%AD%E6%97%8F</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>古希臘語</t>
+    <t>古希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%A3%AB%E8%AF%AD</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
+    <t>荷兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>意大利半島</t>
+    <t>意大利半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E4%BC%AF%E6%B2%B3</t>
@@ -689,9 +689,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A%E5%8D%8A%E5%B2%9B</t>
   </si>
   <si>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%B3%A2%E5%A2%A8%E6%B6%85</t>
   </si>
   <si>
-    <t>墨爾波墨涅</t>
+    <t>墨尔波墨涅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>古典拉丁語</t>
+    <t>古典拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E6%97%B6%E4%BB%A3</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%A7%E6%88%B0%E8%A8%98</t>
   </si>
   <si>
-    <t>高盧戰記</t>
+    <t>高卢战记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E5%88%A9%E4%B9%8C%E6%96%AF%C2%B7%E5%B0%BC%E6%B3%A2%E6%96%AF</t>
@@ -869,19 +866,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%B6%AD</t>
   </si>
   <si>
-    <t>李維</t>
+    <t>李维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%B6%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>奧維德</t>
+    <t>奥维德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8D%A1</t>
   </si>
   <si>
-    <t>塞內卡</t>
+    <t>塞内卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E6%8F%90%E5%88%A9%E5%AE%89</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%B3%A2%E7%BE%85%E4%BF%AE</t>
   </si>
   <si>
-    <t>安波羅修</t>
+    <t>安波罗修</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E6%9F%94%E7%B1%B3</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -1031,13 +1028,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E9%9D%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>書面語</t>
+    <t>书面语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%B0%94%E9%A9%AC%E6%8F%90%E4%BA%9A%E8%AF%AD</t>
@@ -1049,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%B8%81%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>薩丁尼亞語</t>
+    <t>萨丁尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
@@ -1085,13 +1082,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加里西亞語</t>
+    <t>加里西亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%B4%A1%E8%AF%AD</t>
@@ -1145,9 +1142,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD</t>
   </si>
   <si>
-    <t>葡萄牙语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B-%E7%BD%97%E6%9B%BC%E8%AF%AD</t>
   </si>
   <si>
@@ -1157,9 +1151,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
   </si>
   <si>
-    <t>罗马尼亚语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
   </si>
   <si>
@@ -1211,13 +1202,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%9F%B9%E6%A0%B9</t>
   </si>
   <si>
-    <t>法蘭西斯·培根</t>
+    <t>法兰西斯·培根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%96%A9%E5%85%8B%C2%B7%E7%89%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>艾薩克·牛頓</t>
+    <t>艾萨克·牛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -1289,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>生物分類法</t>
+    <t>生物分类法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
@@ -1325,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D%E7%99%BC%E5%B1%95%E5%8F%B2</t>
   </si>
   <si>
-    <t>拉丁字母發展史</t>
+    <t>拉丁字母发展史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%B0%94</t>
@@ -1337,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E7%88%BE%E7%9A%84%E8%81%96%E7%91%AA%E7%88%BE%E5%AE%9A</t>
   </si>
   <si>
-    <t>都爾的聖瑪爾定</t>
+    <t>都尔的圣玛尔定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%9E%97%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
@@ -1349,13 +1340,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AF%AB%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>小寫字母</t>
+    <t>小写字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%89%B2%E7%88%BE%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>安色爾字體</t>
+    <t>安色尔字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%AD%97%E6%AF%8D</t>
@@ -1553,9 +1544,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>希臘字母</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3</t>
   </si>
   <si>
@@ -1595,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%96%80%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲門音</t>
+    <t>声门音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E9%9F%B3</t>
@@ -1631,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3%E9%95%B7%E5%BA%A6</t>
   </si>
   <si>
-    <t>元音長度</t>
+    <t>元音长度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%AF%AD%E6%B3%95</t>
@@ -1643,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%88%E6%8A%98%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>屈折變化</t>
+    <t>屈折变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E6%A0%BC</t>
@@ -1697,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%AA%E6%A0%BC</t>
   </si>
   <si>
-    <t>奪格</t>
+    <t>夺格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E5%BA%8F</t>
@@ -1709,9 +1697,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>語序</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%AE%BE%E8%B0%93%E7%BB%93%E6%9E%84</t>
   </si>
   <si>
@@ -1769,15 +1754,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8A%E6%99%82%E8%A1%8C%E6%A8%82</t>
   </si>
   <si>
-    <t>及時行樂</t>
+    <t>及时行乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>賀拉斯</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Odes_(Horace)</t>
   </si>
   <si>
@@ -1847,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B1%9F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>淡江大學</t>
+    <t>淡江大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -1871,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://la.wikipedia.org/wiki/</t>
@@ -1889,39 +1871,33 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>Template talk-羅曼語族</t>
+    <t>Template talk-罗曼语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>羅曼語族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>東羅曼語支</t>
+    <t>东罗曼语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿羅馬尼亞語</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Megleno-Romanian_language</t>
   </si>
   <si>
@@ -1931,25 +1907,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9-%E9%81%94%E7%88%BE%E9%A6%AC%E6%8F%90%E4%BA%9E%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>義大利-達爾馬提亞語支</t>
+    <t>义大利-达尔马提亚语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E5%9D%A1%E9%87%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>拿坡里語</t>
+    <t>拿坡里语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>西西里語</t>
+    <t>西西里语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B1%B3%E5%88%A9%E4%BA%9E-%E7%BE%85%E9%A6%AC%E6%B6%85%E8%AA%9E</t>
   </si>
   <si>
-    <t>艾米利亞-羅馬涅語</t>
+    <t>艾米利亚-罗马涅语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9A%E8%AF%AD</t>
@@ -1961,61 +1937,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E5%B7%B4%E5%BA%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>倫巴底語</t>
+    <t>伦巴底语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E8%92%99%E7%89%B9%E8%AA%9E</t>
   </si>
   <si>
-    <t>皮埃蒙特語</t>
+    <t>皮埃蒙特语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>威尼斯語</t>
+    <t>威尼斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E4%BE%9D%E8%AA%9E</t>
   </si>
   <si>
-    <t>奧依語</t>
+    <t>奥依语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E5%8D%A1%E5%BA%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>庇卡底語</t>
+    <t>庇卡底语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B-%E6%99%AE%E7%BE%85%E6%97%BA%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>法蘭克-普羅旺斯語</t>
+    <t>法兰克-普罗旺斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%BE%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>瓦龍語</t>
+    <t>瓦龙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%89%98-%E7%BE%85%E6%9B%BC%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>列托-羅曼斯語</t>
+    <t>列托-罗曼斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E7%95%99%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>弗留利語</t>
+    <t>弗留利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%99%BB%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉登語</t>
+    <t>拉登语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A-%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
@@ -2027,9 +2003,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%A6%E8%A5%BF%E4%BA%9A%E8%AF%AD</t>
   </si>
   <si>
@@ -2039,19 +2012,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>奧克語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9E%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>西伊比利亞語支</t>
+    <t>西伊比利亚语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%9C%96%E9%87%8C%E4%BA%9E%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿斯圖里亞斯語</t>
+    <t>阿斯图里亚斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B0%E5%BE%B7%E6%96%AF%E8%AF%AD</t>
@@ -2063,13 +2033,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%AF%E7%89%B9%E9%9B%B7%E9%A6%AC%E6%9D%9C%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>埃斯特雷馬杜拉語</t>
+    <t>埃斯特雷马杜拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%BF%AA%E8%AB%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉迪諾語</t>
+    <t>拉迪诺语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA-%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
@@ -2081,13 +2051,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>法拉語</t>
+    <t>法拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加利西亞語</t>
+    <t>加利西亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%9C%AD%E6%8B%89%E5%B8%83%E8%AF%AD</t>
@@ -2099,13 +2069,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%B2%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉貢語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>科西嘉語</t>
+    <t>科西嘉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
@@ -2123,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬歷史</t>
+    <t>罗马历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%9A%84%E5%BB%BA%E7%AB%8B</t>
@@ -2207,7 +2174,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%83%E8%80%81%E9%99%A2</t>
   </si>
   <si>
-    <t>羅馬元老院</t>
+    <t>罗马元老院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E4%BA%BA%E6%B0%91%E5%A4%A7%E4%BC%9A</t>
@@ -2243,13 +2210,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8B%99%E5%AE%98_(%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>政務官 (羅馬)</t>
+    <t>政务官 (罗马)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>羅馬帝國政府</t>
+    <t>罗马帝国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7</t>
@@ -2285,7 +2252,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%8A%A0%E5%9C%96%E6%96%AF</t>
   </si>
   <si>
-    <t>雷加圖斯</t>
+    <t>雷加图斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dux</t>
@@ -2315,7 +2282,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>二十六人團</t>
+    <t>二十六人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E6%96%A7%E6%89%8B</t>
@@ -2351,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD_(%E7%A8%B1%E8%99%9F)</t>
   </si>
   <si>
-    <t>奧古斯都 (稱號)</t>
+    <t>奥古斯都 (称号)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B8%9D%E5%85%B1%E6%B2%BB%E5%88%B6</t>
@@ -2417,7 +2384,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>羅馬總督</t>
+    <t>罗马总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E5%AE%98</t>
@@ -2435,7 +2402,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>十人委員會</t>
+    <t>十人委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribuni_militum_consulari_potestate</t>
@@ -2447,7 +2414,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>三頭政治</t>
+    <t>三头政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%9B%BD%E7%8E%8B</t>
@@ -2525,7 +2492,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91_(%E5%8F%A4%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>平民 (古羅馬)</t>
+    <t>平民 (古罗马)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conflict_of_the_Orders</t>
@@ -2585,7 +2552,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古羅馬同性戀</t>
+    <t>古罗马同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Slavery_in_ancient_Rome</t>
@@ -2603,7 +2570,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>古羅馬軍事</t>
+    <t>古罗马军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -2615,7 +2582,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%88%B0%E5%BD%B9%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬戰役史</t>
+    <t>罗马战役史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E7%A7%91%E6%8A%80%E5%8F%B2</t>
@@ -2663,7 +2630,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬陸軍</t>
+    <t>罗马陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%86%9B%E5%9B%A2</t>
@@ -2687,7 +2654,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬海軍</t>
+    <t>罗马海军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Auxiliaries_(Roman_military)</t>
@@ -2747,7 +2714,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>古羅馬文化</t>
+    <t>古罗马文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E6%96%87%E5%AD%A6</t>
@@ -2759,7 +2726,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古羅馬建築</t>
+    <t>古罗马建筑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_funerals_and_burial</t>
@@ -2861,7 +2828,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%81%93%E8%B7%AF</t>
   </si>
   <si>
-    <t>羅馬道路</t>
+    <t>罗马道路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_bridge</t>
@@ -2897,7 +2864,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古羅馬農業</t>
+    <t>古罗马农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_commerce</t>
@@ -2963,13 +2930,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9D%8E</t>
   </si>
   <si>
-    <t>盧坎</t>
+    <t>卢坎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E5%8E%84%E6%96%AF%C2%B7%E4%BD%A9%E7%89%B9%E7%BE%85%E5%B0%BC%E7%83%8F%E6%96%AF%C2%B7%E9%98%BF%E7%88%BE%E6%AF%94%E7%89%B9</t>
   </si>
   <si>
-    <t>蓋厄斯·佩特羅尼烏斯·阿爾比特</t>
+    <t>盖厄斯·佩特罗尼乌斯·阿尔比特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BD%97%E4%BD%A9%E6%8F%90%E4%B9%8C%E6%96%AF</t>
@@ -3005,7 +2972,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BA%AB%E6%96%AF%C2%B7%E7%89%B9%E5%80%AB%E6%8F%90%E7%83%8F%E6%96%AF%C2%B7%E7%93%A6%E7%BE%85</t>
   </si>
   <si>
-    <t>馬庫斯·特倫提烏斯·瓦羅</t>
+    <t>马库斯·特伦提乌斯·瓦罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E7%89%B9%E9%B2%81%E5%A8%81</t>
@@ -3053,7 +3020,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3065,13 +3032,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -6815,7 +6782,7 @@
         <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6841,10 +6808,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6870,10 +6837,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6899,10 +6866,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6928,10 +6895,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6957,10 +6924,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6986,10 +6953,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -7015,10 +6982,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>19</v>
@@ -7044,10 +7011,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -7073,10 +7040,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -7102,10 +7069,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7131,10 +7098,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7160,10 +7127,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7189,10 +7156,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7218,10 +7185,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>8</v>
@@ -7247,10 +7214,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>4</v>
@@ -7276,10 +7243,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7305,10 +7272,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -7334,10 +7301,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7363,10 +7330,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7392,10 +7359,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7421,10 +7388,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7450,10 +7417,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7479,10 +7446,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7508,10 +7475,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7537,10 +7504,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7566,10 +7533,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -7595,10 +7562,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>6</v>
@@ -7624,10 +7591,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -7653,10 +7620,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7682,10 +7649,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7711,10 +7678,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7740,10 +7707,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7769,10 +7736,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7798,10 +7765,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7827,10 +7794,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7856,10 +7823,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
         <v>295</v>
-      </c>
-      <c r="F153" t="s">
-        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7885,10 +7852,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>296</v>
+      </c>
+      <c r="F154" t="s">
         <v>297</v>
-      </c>
-      <c r="F154" t="s">
-        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7914,10 +7881,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7943,10 +7910,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
-      </c>
-      <c r="F156" t="s">
-        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7972,10 +7939,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8001,10 +7968,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8030,10 +7997,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" t="s">
         <v>307</v>
-      </c>
-      <c r="F159" t="s">
-        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8059,10 +8026,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
         <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8088,10 +8055,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" t="s">
         <v>311</v>
-      </c>
-      <c r="F161" t="s">
-        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8117,10 +8084,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>312</v>
+      </c>
+      <c r="F162" t="s">
         <v>313</v>
-      </c>
-      <c r="F162" t="s">
-        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8146,10 +8113,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>314</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8175,10 +8142,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
-      </c>
-      <c r="F164" t="s">
-        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8204,10 +8171,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8233,10 +8200,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8262,10 +8229,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8291,10 +8258,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8320,10 +8287,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8349,10 +8316,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8378,10 +8345,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8407,10 +8374,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -8436,10 +8403,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8465,10 +8432,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>254</v>
+      </c>
+      <c r="F174" t="s">
         <v>255</v>
-      </c>
-      <c r="F174" t="s">
-        <v>256</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8494,10 +8461,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>250</v>
+      </c>
+      <c r="F175" t="s">
         <v>251</v>
-      </c>
-      <c r="F175" t="s">
-        <v>252</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8523,10 +8490,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" t="s">
         <v>337</v>
-      </c>
-      <c r="F176" t="s">
-        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8581,10 +8548,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>338</v>
+      </c>
+      <c r="F178" t="s">
         <v>339</v>
-      </c>
-      <c r="F178" t="s">
-        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>5</v>
@@ -8610,10 +8577,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>340</v>
+      </c>
+      <c r="F179" t="s">
         <v>341</v>
-      </c>
-      <c r="F179" t="s">
-        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8639,10 +8606,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>342</v>
+      </c>
+      <c r="F180" t="s">
         <v>343</v>
-      </c>
-      <c r="F180" t="s">
-        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8668,10 +8635,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>344</v>
+      </c>
+      <c r="F181" t="s">
         <v>345</v>
-      </c>
-      <c r="F181" t="s">
-        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>5</v>
@@ -8726,10 +8693,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>346</v>
+      </c>
+      <c r="F183" t="s">
         <v>347</v>
-      </c>
-      <c r="F183" t="s">
-        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8755,10 +8722,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>348</v>
+      </c>
+      <c r="F184" t="s">
         <v>349</v>
-      </c>
-      <c r="F184" t="s">
-        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8784,10 +8751,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>350</v>
+      </c>
+      <c r="F185" t="s">
         <v>351</v>
-      </c>
-      <c r="F185" t="s">
-        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8813,10 +8780,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>350</v>
+      </c>
+      <c r="F186" t="s">
         <v>351</v>
-      </c>
-      <c r="F186" t="s">
-        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8842,10 +8809,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>352</v>
+      </c>
+      <c r="F187" t="s">
         <v>353</v>
-      </c>
-      <c r="F187" t="s">
-        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>5</v>
@@ -8871,10 +8838,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>354</v>
+      </c>
+      <c r="F188" t="s">
         <v>355</v>
-      </c>
-      <c r="F188" t="s">
-        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8900,10 +8867,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>356</v>
+      </c>
+      <c r="F189" t="s">
         <v>357</v>
-      </c>
-      <c r="F189" t="s">
-        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8929,10 +8896,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>358</v>
+      </c>
+      <c r="F190" t="s">
         <v>359</v>
-      </c>
-      <c r="F190" t="s">
-        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8958,10 +8925,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>360</v>
+      </c>
+      <c r="F191" t="s">
         <v>361</v>
-      </c>
-      <c r="F191" t="s">
-        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>11</v>
@@ -8987,10 +8954,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>362</v>
+      </c>
+      <c r="F192" t="s">
         <v>363</v>
-      </c>
-      <c r="F192" t="s">
-        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>6</v>
@@ -9016,10 +8983,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>364</v>
+      </c>
+      <c r="F193" t="s">
         <v>365</v>
-      </c>
-      <c r="F193" t="s">
-        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9045,10 +9012,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>366</v>
+      </c>
+      <c r="F194" t="s">
         <v>367</v>
-      </c>
-      <c r="F194" t="s">
-        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -9074,10 +9041,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>368</v>
+      </c>
+      <c r="F195" t="s">
         <v>369</v>
-      </c>
-      <c r="F195" t="s">
-        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9132,10 +9099,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>370</v>
+      </c>
+      <c r="F197" t="s">
         <v>371</v>
-      </c>
-      <c r="F197" t="s">
-        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9161,10 +9128,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>372</v>
+      </c>
+      <c r="F198" t="s">
         <v>373</v>
-      </c>
-      <c r="F198" t="s">
-        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9190,10 +9157,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>344</v>
+      </c>
+      <c r="F199" t="s">
         <v>345</v>
-      </c>
-      <c r="F199" t="s">
-        <v>346</v>
       </c>
       <c r="G199" t="n">
         <v>8</v>
@@ -9219,10 +9186,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F200" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -9248,10 +9215,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>352</v>
+      </c>
+      <c r="F201" t="s">
         <v>353</v>
-      </c>
-      <c r="F201" t="s">
-        <v>354</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -9277,10 +9244,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9306,10 +9273,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="G203" t="n">
         <v>7</v>
@@ -9335,10 +9302,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9364,10 +9331,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9393,10 +9360,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9480,10 +9447,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9509,10 +9476,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9538,10 +9505,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -9567,10 +9534,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F212" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9596,10 +9563,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F213" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G213" t="n">
         <v>6</v>
@@ -9625,10 +9592,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F214" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9654,10 +9621,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F215" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9683,10 +9650,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F216" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9712,10 +9679,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F217" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9741,10 +9708,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F218" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9770,10 +9737,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F219" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9799,10 +9766,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F220" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9828,10 +9795,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9857,10 +9824,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9886,10 +9853,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9915,10 +9882,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F224" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9944,10 +9911,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F225" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9973,10 +9940,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F226" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10002,10 +9969,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10031,10 +9998,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F228" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G228" t="n">
         <v>6</v>
@@ -10060,10 +10027,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F229" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10089,10 +10056,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F230" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10118,10 +10085,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F231" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10147,10 +10114,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10176,10 +10143,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10234,10 +10201,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10263,10 +10230,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10292,10 +10259,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F237" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10321,10 +10288,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F238" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10350,10 +10317,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F239" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -10379,10 +10346,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F240" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -10408,10 +10375,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F241" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10437,10 +10404,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F242" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10466,10 +10433,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F243" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10495,10 +10462,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F244" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10524,10 +10491,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F245" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10553,10 +10520,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F246" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10582,10 +10549,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F247" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G247" t="n">
         <v>22</v>
@@ -10611,10 +10578,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F248" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G248" t="n">
         <v>8</v>
@@ -10640,10 +10607,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F249" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G249" t="n">
         <v>57</v>
@@ -10669,10 +10636,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F250" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G250" t="n">
         <v>29</v>
@@ -10698,10 +10665,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F251" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G251" t="n">
         <v>65</v>
@@ -10727,10 +10694,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F252" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G252" t="n">
         <v>30</v>
@@ -10756,10 +10723,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F253" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G253" t="n">
         <v>45</v>
@@ -10785,10 +10752,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F254" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G254" t="n">
         <v>36</v>
@@ -10814,10 +10781,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F255" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G255" t="n">
         <v>14</v>
@@ -10843,10 +10810,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F256" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G256" t="n">
         <v>17</v>
@@ -10872,10 +10839,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F257" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G257" t="n">
         <v>57</v>
@@ -10901,10 +10868,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F258" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -10930,10 +10897,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F259" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G259" t="n">
         <v>52</v>
@@ -10959,10 +10926,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F260" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G260" t="n">
         <v>52</v>
@@ -10988,10 +10955,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F261" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G261" t="n">
         <v>52</v>
@@ -11017,10 +10984,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F262" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G262" t="n">
         <v>26</v>
@@ -11046,10 +11013,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G263" t="n">
         <v>56</v>
@@ -11075,10 +11042,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F264" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G264" t="n">
         <v>19</v>
@@ -11104,10 +11071,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G265" t="n">
         <v>84</v>
@@ -11133,10 +11100,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G266" t="n">
         <v>58</v>
@@ -11162,10 +11129,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F267" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G267" t="n">
         <v>62</v>
@@ -11191,10 +11158,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F268" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G268" t="n">
         <v>37</v>
@@ -11220,10 +11187,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F269" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11249,10 +11216,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F270" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -11278,10 +11245,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F271" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11307,10 +11274,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F272" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11336,10 +11303,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -11365,10 +11332,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11394,10 +11361,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11423,10 +11390,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11452,10 +11419,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F277" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11481,10 +11448,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F278" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11510,10 +11477,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F279" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11539,10 +11506,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F280" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11568,10 +11535,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F281" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11597,10 +11564,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F282" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11626,10 +11593,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F283" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11655,10 +11622,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F284" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11684,10 +11651,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F285" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G285" t="n">
         <v>3</v>
@@ -11713,10 +11680,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F286" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G286" t="n">
         <v>4</v>
@@ -11742,10 +11709,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F287" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G287" t="n">
         <v>7</v>
@@ -11771,10 +11738,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F288" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -11800,10 +11767,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F289" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G289" t="n">
         <v>9</v>
@@ -11829,10 +11796,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F290" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G290" t="n">
         <v>9</v>
@@ -11858,10 +11825,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F291" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11887,10 +11854,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F292" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G292" t="n">
         <v>7</v>
@@ -11916,10 +11883,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F293" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G293" t="n">
         <v>5</v>
@@ -11945,10 +11912,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F294" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G294" t="n">
         <v>4</v>
@@ -11974,10 +11941,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F295" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G295" t="n">
         <v>5</v>
@@ -12003,10 +11970,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F296" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G296" t="n">
         <v>6</v>
@@ -12032,10 +11999,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F297" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G297" t="n">
         <v>5</v>
@@ -12061,10 +12028,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F298" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G298" t="n">
         <v>7</v>
@@ -12148,10 +12115,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F301" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12177,10 +12144,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F302" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G302" t="n">
         <v>3</v>
@@ -12206,10 +12173,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F303" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12235,10 +12202,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F304" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G304" t="n">
         <v>3</v>
@@ -12264,10 +12231,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12293,10 +12260,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12322,10 +12289,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12351,10 +12318,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12380,10 +12347,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12409,10 +12376,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F310" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12438,10 +12405,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F311" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12467,10 +12434,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F312" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12496,10 +12463,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12525,10 +12492,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>281</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12554,10 +12521,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F315" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12583,10 +12550,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F316" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12612,10 +12579,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F317" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12641,10 +12608,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F318" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12670,10 +12637,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F319" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12699,10 +12666,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12728,10 +12695,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12757,10 +12724,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12786,10 +12753,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12815,10 +12782,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12844,10 +12811,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F325" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12873,10 +12840,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F326" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12902,10 +12869,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F327" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12931,10 +12898,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F328" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12960,10 +12927,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F329" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12989,10 +12956,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F330" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13018,10 +12985,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F331" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13047,10 +13014,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F332" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13076,10 +13043,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F333" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -13105,10 +13072,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F334" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13134,10 +13101,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F335" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13163,10 +13130,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F336" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G336" t="n">
         <v>13</v>
@@ -13192,10 +13159,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F337" t="s">
-        <v>630</v>
+        <v>24</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13221,10 +13188,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F338" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13250,10 +13217,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F339" t="s">
-        <v>634</v>
+        <v>379</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13279,10 +13246,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F340" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13308,10 +13275,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>372</v>
+      </c>
+      <c r="F341" t="s">
         <v>373</v>
-      </c>
-      <c r="F341" t="s">
-        <v>374</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13337,10 +13304,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F342" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13366,10 +13333,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>340</v>
+      </c>
+      <c r="F343" t="s">
         <v>341</v>
-      </c>
-      <c r="F343" t="s">
-        <v>342</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13395,10 +13362,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F344" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13424,10 +13391,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F345" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13453,10 +13420,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F346" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13482,10 +13449,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F347" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13511,10 +13478,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F348" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13540,10 +13507,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F349" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13569,10 +13536,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F350" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13598,10 +13565,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F351" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13627,10 +13594,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F352" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -13656,10 +13623,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F353" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13685,10 +13652,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F354" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13714,10 +13681,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F355" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13743,10 +13710,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F356" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13772,10 +13739,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F357" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13801,10 +13768,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F358" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13830,10 +13797,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F359" t="s">
-        <v>670</v>
+        <v>349</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13859,10 +13826,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F360" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13888,10 +13855,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F361" t="s">
-        <v>674</v>
+        <v>351</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13917,10 +13884,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F362" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13946,10 +13913,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F363" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13975,10 +13942,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F364" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14004,10 +13971,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F365" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14033,10 +14000,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F366" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14062,10 +14029,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F367" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14091,10 +14058,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F368" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14120,10 +14087,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F369" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14149,10 +14116,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F370" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14178,10 +14145,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F371" t="s">
-        <v>694</v>
+        <v>359</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14207,10 +14174,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F372" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14236,10 +14203,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>342</v>
+      </c>
+      <c r="F373" t="s">
         <v>343</v>
-      </c>
-      <c r="F373" t="s">
-        <v>344</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14265,10 +14232,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F374" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G374" t="n">
         <v>9</v>
@@ -14294,10 +14261,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="F375" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14323,10 +14290,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="F376" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="G376" t="n">
         <v>10</v>
@@ -14352,10 +14319,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F377" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14468,10 +14435,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F381" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14497,10 +14464,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F382" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14526,10 +14493,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="F383" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14555,10 +14522,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F384" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="G384" t="n">
         <v>5</v>
@@ -14584,10 +14551,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F385" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14613,10 +14580,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F386" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14642,10 +14609,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="F387" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="G387" t="n">
         <v>6</v>
@@ -14671,10 +14638,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F388" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14700,10 +14667,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="F389" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14729,10 +14696,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F390" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14758,10 +14725,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="F391" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14787,10 +14754,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F392" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14816,10 +14783,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="F393" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14845,10 +14812,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F394" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14874,10 +14841,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F395" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14903,10 +14870,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F396" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14932,10 +14899,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F397" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14961,10 +14928,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="F398" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14990,10 +14957,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F399" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -15019,10 +14986,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="F400" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15048,10 +15015,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F401" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15077,10 +15044,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F402" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -15106,10 +15073,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F403" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15135,10 +15102,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="F404" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -15164,10 +15131,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="F405" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="G405" t="n">
         <v>3</v>
@@ -15193,10 +15160,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="F406" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15222,10 +15189,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="F407" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15251,10 +15218,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="F408" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15280,10 +15247,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="F409" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15309,10 +15276,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="F410" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15338,10 +15305,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="F411" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15367,10 +15334,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F412" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15396,10 +15363,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="F413" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15425,10 +15392,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="F414" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15454,10 +15421,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="F415" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15483,10 +15450,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="F416" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15512,10 +15479,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F417" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15541,10 +15508,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="F418" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15570,10 +15537,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="F419" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -15599,10 +15566,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="F420" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15628,10 +15595,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="F421" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15657,10 +15624,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="F422" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15686,10 +15653,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="F423" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15715,10 +15682,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="F424" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15744,10 +15711,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="F425" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G425" t="n">
         <v>7</v>
@@ -15773,10 +15740,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="F426" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15802,10 +15769,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="F427" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15831,10 +15798,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="F428" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15860,10 +15827,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="F429" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15889,10 +15856,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="F430" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15918,10 +15885,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F431" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15947,10 +15914,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F432" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15976,10 +15943,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="F433" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16005,10 +15972,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="F434" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16034,10 +16001,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="F435" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16063,10 +16030,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="F436" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="G436" t="n">
         <v>6</v>
@@ -16092,10 +16059,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="F437" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16121,10 +16088,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F438" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16150,10 +16117,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="F439" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16179,10 +16146,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="F440" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16208,10 +16175,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="F441" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16237,10 +16204,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F442" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16266,10 +16233,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F443" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16295,10 +16262,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="F444" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16324,10 +16291,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="F445" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16353,10 +16320,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="F446" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="G446" t="n">
         <v>4</v>
@@ -16382,10 +16349,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="F447" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16411,10 +16378,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F448" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16440,10 +16407,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="F449" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16469,10 +16436,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="F450" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16498,10 +16465,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="F451" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16527,10 +16494,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="F452" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16556,10 +16523,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="F453" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16585,10 +16552,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="F454" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16614,10 +16581,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="F455" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16643,10 +16610,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="F456" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16672,10 +16639,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="F457" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16701,10 +16668,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="F458" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16730,10 +16697,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="F459" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16759,10 +16726,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="F460" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16788,10 +16755,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="F461" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16817,10 +16784,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="F462" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16846,10 +16813,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F463" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16875,10 +16842,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F464" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16904,10 +16871,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F465" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16933,10 +16900,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F466" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16962,10 +16929,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F467" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16991,10 +16958,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F468" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17020,10 +16987,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F469" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17049,10 +17016,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F470" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -17078,10 +17045,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="F471" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17107,10 +17074,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F472" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17136,10 +17103,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F473" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17165,10 +17132,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F474" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17194,10 +17161,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F475" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17223,10 +17190,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="F476" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17252,10 +17219,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="F477" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17281,10 +17248,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F478" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17310,10 +17277,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F479" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17339,10 +17306,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="F480" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17368,10 +17335,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="F481" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17397,10 +17364,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="F482" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17426,10 +17393,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="F483" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G483" t="n">
         <v>6</v>
@@ -17455,10 +17422,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F484" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G484" t="n">
         <v>9</v>
@@ -17484,10 +17451,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F485" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17513,10 +17480,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="F486" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17542,10 +17509,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="F487" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17571,10 +17538,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="F488" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17600,10 +17567,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F489" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17629,10 +17596,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F490" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17658,10 +17625,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F491" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17687,10 +17654,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="F492" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17716,10 +17683,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="F493" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17745,10 +17712,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="F494" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17774,10 +17741,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="F495" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17803,10 +17770,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="F496" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17832,10 +17799,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="F497" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17861,10 +17828,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="F498" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17890,10 +17857,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F499" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17919,10 +17886,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="F500" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17948,10 +17915,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="F501" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17977,10 +17944,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F502" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18006,10 +17973,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="F503" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18035,10 +18002,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="F504" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18064,10 +18031,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="F505" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18093,10 +18060,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="F506" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18122,10 +18089,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="F507" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18151,10 +18118,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="F508" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18180,10 +18147,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="F509" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18209,10 +18176,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="F510" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18238,10 +18205,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F511" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18267,10 +18234,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="F512" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18296,10 +18263,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="F513" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18325,10 +18292,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
+        <v>250</v>
+      </c>
+      <c r="F514" t="s">
         <v>251</v>
-      </c>
-      <c r="F514" t="s">
-        <v>252</v>
       </c>
       <c r="G514" t="n">
         <v>11</v>
@@ -18383,10 +18350,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="F516" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18412,10 +18379,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="F517" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18441,10 +18408,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="F518" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18470,10 +18437,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
+        <v>328</v>
+      </c>
+      <c r="F519" t="s">
         <v>329</v>
-      </c>
-      <c r="F519" t="s">
-        <v>330</v>
       </c>
       <c r="G519" t="n">
         <v>3</v>
@@ -18499,10 +18466,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F520" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G520" t="n">
         <v>8</v>
@@ -18528,10 +18495,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
+        <v>302</v>
+      </c>
+      <c r="F521" t="s">
         <v>303</v>
-      </c>
-      <c r="F521" t="s">
-        <v>304</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18557,10 +18524,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="F522" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18586,10 +18553,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="F523" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="G523" t="n">
         <v>2</v>
@@ -18615,10 +18582,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="F524" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18644,10 +18611,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="F525" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18673,10 +18640,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="F526" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18702,10 +18669,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="F527" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18731,10 +18698,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
+        <v>288</v>
+      </c>
+      <c r="F528" t="s">
         <v>289</v>
-      </c>
-      <c r="F528" t="s">
-        <v>290</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18760,10 +18727,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="F529" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18789,10 +18756,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="F530" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18818,10 +18785,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="F531" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18847,10 +18814,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="F532" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18876,10 +18843,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="F533" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18905,10 +18872,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="F534" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -18934,10 +18901,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="F535" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -18963,10 +18930,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="F536" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="G536" t="n">
         <v>2</v>
@@ -18992,10 +18959,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="F537" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19021,10 +18988,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="F538" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="G538" t="n">
         <v>4</v>
@@ -19050,10 +19017,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="F539" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19079,10 +19046,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="F540" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19108,10 +19075,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="F541" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="G541" t="n">
         <v>3</v>
@@ -19137,10 +19104,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="F542" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19166,10 +19133,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="F543" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19195,10 +19162,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="F544" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19224,10 +19191,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="F545" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="G545" t="n">
         <v>17</v>
@@ -19253,10 +19220,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="F546" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>

--- a/xlsx/拉丁文_intext.xlsx
+++ b/xlsx/拉丁文_intext.xlsx
@@ -29,7 +29,7 @@
     <t>罗马斗兽场</t>
   </si>
   <si>
-    <t>政策_政策_管理_拉丁文</t>
+    <t>体育运动_体育运动_文化_拉丁文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -10675,7 +10675,7 @@
         <v>468</v>
       </c>
       <c r="G250" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10762,7 +10762,7 @@
         <v>474</v>
       </c>
       <c r="G253" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10907,7 +10907,7 @@
         <v>484</v>
       </c>
       <c r="G258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -11081,7 +11081,7 @@
         <v>496</v>
       </c>
       <c r="G264" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11139,7 +11139,7 @@
         <v>500</v>
       </c>
       <c r="G266" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -11197,7 +11197,7 @@
         <v>504</v>
       </c>
       <c r="G268" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -11255,7 +11255,7 @@
         <v>508</v>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
